--- a/DaySale_2025-05-27_23-58.xlsx
+++ b/DaySale_2025-05-27_23-58.xlsx
@@ -161,6 +161,15 @@
     <t>28.5000</t>
   </si>
   <si>
+    <t>BEBELAC 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -599,6 +608,12 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>MEMEXA 10MG 10 F.C. TAB.</t>
   </si>
   <si>
@@ -752,6 +767,15 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
   </si>
   <si>
@@ -767,6 +791,15 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>TERBIN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -834,12 +867,6 @@
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>96.00</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2 سم</t>
@@ -1906,7 +1933,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1923,7 +1950,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1945,18 +1972,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1965,20 +1992,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1989,7 +2016,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2005,7 +2032,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2015,14 +2042,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2031,14 +2058,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2048,14 +2075,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2064,14 +2091,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2104,7 +2131,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2121,7 +2148,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2147,11 +2174,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2163,14 +2190,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2180,11 +2207,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2213,11 +2240,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2236,7 +2263,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2269,7 +2296,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2302,7 +2329,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2345,11 +2372,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2361,7 +2388,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2378,11 +2405,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2394,31 +2421,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2427,31 +2454,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2467,7 +2494,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2477,14 +2504,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2510,14 +2537,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2526,14 +2553,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2543,14 +2570,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2559,14 +2586,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2576,14 +2603,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>79</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2616,7 +2643,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2632,7 +2659,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2646,7 +2673,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>38</v>
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2675,11 +2702,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>38</v>
@@ -2698,7 +2725,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2708,14 +2735,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2741,11 +2768,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2774,11 +2801,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2797,7 +2824,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2814,7 +2841,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2830,7 +2857,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2863,7 +2890,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2896,24 +2923,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2922,31 +2949,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2962,7 +2989,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2976,10 +3003,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>38</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2995,7 +3022,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3005,11 +3032,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>38</v>
@@ -3021,14 +3048,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3038,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3078,7 +3105,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3111,7 +3138,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3127,7 +3154,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3144,7 +3171,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3160,7 +3187,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3193,7 +3220,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3207,10 +3234,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3219,14 +3246,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3236,14 +3263,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3252,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3269,11 +3296,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3292,13 +3319,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3331,7 +3358,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3364,7 +3391,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3375,7 +3402,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3391,24 +3418,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3417,31 +3444,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3457,7 +3484,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3467,14 +3494,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3483,14 +3510,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3500,14 +3527,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3516,14 +3543,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3533,14 +3560,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>195</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3556,7 +3583,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3566,14 +3593,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3582,14 +3609,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3599,11 +3626,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3615,14 +3642,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3632,14 +3659,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3648,14 +3675,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3688,7 +3715,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3698,7 +3725,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3721,24 +3748,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3747,14 +3774,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3764,14 +3791,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3780,31 +3807,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3813,14 +3840,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3830,14 +3857,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3846,14 +3873,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3863,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3879,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3896,11 +3923,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3912,28 +3939,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3945,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3962,11 +3989,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3978,31 +4005,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4011,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4028,14 +4055,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4044,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4061,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4077,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4094,14 +4121,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4110,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4127,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4143,14 +4170,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4160,14 +4187,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4176,14 +4203,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4193,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4216,7 +4243,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4226,14 +4253,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>116</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4242,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4259,14 +4286,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4282,7 +4309,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4315,7 +4342,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4325,14 +4352,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,10 +4389,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4374,14 +4401,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4391,11 +4418,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4407,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4424,14 +4451,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4440,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4457,14 +4484,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4473,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4490,14 +4517,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4506,14 +4533,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4523,14 +4550,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>269</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4539,14 +4566,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4556,14 +4583,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4579,7 +4606,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4589,14 +4616,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4605,28 +4632,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4638,31 +4665,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4671,28 +4698,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>40</v>
@@ -4704,31 +4731,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4737,31 +4764,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>260</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4770,24 +4797,24 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4810,13 +4837,13 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4824,10 +4851,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4836,20 +4863,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4857,10 +4884,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4882,18 +4909,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4902,28 +4929,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4935,28 +4962,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4968,28 +4995,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5001,28 +5028,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5034,66 +5061,198 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>148</v>
+        <v>292</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5572.2399999999998</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>308</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>309</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>310</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>12</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>60</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>288</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>311</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>312</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>60</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>288</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>313</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>314</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>60</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>288</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>315</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>12</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>60</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>151</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5955.4200000000001</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>317</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>318</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>319</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5632,10 +5791,30 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
